--- a/documentation/design-process/Costs.xlsx
+++ b/documentation/design-process/Costs.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussa\Desktop\workspace\capstone-project\documentation\design-process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE07EAC-A1FF-48C9-BABB-0D1C88CD4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Item</t>
   </si>
@@ -23,23 +32,39 @@
   </si>
   <si>
     <t>Antenna module</t>
+  </si>
+  <si>
+    <t>OBD2 extension cable</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Mubashir</t>
+  </si>
+  <si>
+    <t>Hussain</t>
+  </si>
+  <si>
+    <t>Sarmad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -50,39 +75,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -272,47 +302,72 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C4:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>65.78</v>
       </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>22.41</v>
       </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>22.99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/design-process/Costs.xlsx
+++ b/documentation/design-process/Costs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussa\Desktop\workspace\capstone-project\documentation\design-process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26b4f1050d8d5144/Desktop/school-workspace/2023/fall/enel-400-capstone/githubrepo/capstone-project/documentation/design-process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE07EAC-A1FF-48C9-BABB-0D1C88CD4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{EEE07EAC-A1FF-48C9-BABB-0D1C88CD4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5D56E1-08FA-4D87-B0C8-3C54A90C8990}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -31,22 +31,28 @@
     <t>CAN transceiver + 2 picos</t>
   </si>
   <si>
-    <t>Antenna module</t>
-  </si>
-  <si>
     <t>OBD2 extension cable</t>
   </si>
   <si>
     <t>Buyer</t>
   </si>
   <si>
-    <t>Mubashir</t>
-  </si>
-  <si>
     <t>Hussain</t>
   </si>
   <si>
-    <t>Sarmad</t>
+    <t>SIM7600G-H</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Alvi</t>
   </si>
 </sst>
 </file>
@@ -54,9 +60,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -67,6 +73,42 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,16 +128,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -312,60 +392,147 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C4:E7"/>
+  <dimension ref="C4:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>65.78</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>65.78</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="5">
+        <v>87.92</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>22.41</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>22.99</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/design-process/Costs.xlsx
+++ b/documentation/design-process/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26b4f1050d8d5144/Desktop/school-workspace/2023/fall/enel-400-capstone/githubrepo/capstone-project/documentation/design-process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{EEE07EAC-A1FF-48C9-BABB-0D1C88CD4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5D56E1-08FA-4D87-B0C8-3C54A90C8990}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{EEE07EAC-A1FF-48C9-BABB-0D1C88CD4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41723432-08E5-49B6-A035-0E494DD52F92}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>Alvi</t>
+  </si>
+  <si>
+    <t>SIM900</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>OTW</t>
+  </si>
+  <si>
+    <t>Cannot be returned b/c shipping costs 50+</t>
   </si>
 </sst>
 </file>
@@ -148,11 +163,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,11 +181,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -189,6 +213,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,146 +420,221 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C4:E30"/>
+  <dimension ref="C4:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>65.78</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>87.92</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>22.99</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
+      <c r="F7" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="9" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>28.54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
     </row>
   </sheetData>

--- a/documentation/design-process/Costs.xlsx
+++ b/documentation/design-process/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26b4f1050d8d5144/Desktop/school-workspace/2023/fall/enel-400-capstone/githubrepo/capstone-project/documentation/design-process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{EEE07EAC-A1FF-48C9-BABB-0D1C88CD4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41723432-08E5-49B6-A035-0E494DD52F92}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{EEE07EAC-A1FF-48C9-BABB-0D1C88CD4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87112222-9312-41E4-B32F-615DC1FA0BA8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Cannot be returned b/c shipping costs 50+</t>
+  </si>
+  <si>
+    <t>SIM7020G</t>
+  </si>
+  <si>
+    <t>Return request waiting to be accepted</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,10 +199,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -423,7 +425,7 @@
   <dimension ref="C4:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -484,7 +486,7 @@
       <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -496,9 +498,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
@@ -508,9 +508,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
@@ -520,12 +518,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8">
@@ -534,92 +530,99 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8">
+        <v>48.59</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="9"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="9"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="9"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="9"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="9"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="9"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="9"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="9"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="9"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="9"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="9"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="9"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="9"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
